--- a/outputs/regressions/C_trust_UH_tables.xlsx
+++ b/outputs/regressions/C_trust_UH_tables.xlsx
@@ -2716,7 +2716,7 @@
         <v>1.881874952296034</v>
       </c>
       <c r="C3">
-        <v>0.6000000000000001</v>
+        <v>0.6379999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
